--- a/const/newquest.xlsx
+++ b/const/newquest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6160" yWindow="0" windowWidth="32000" windowHeight="16540" activeTab="1"/>
+    <workbookView xWindow="80" yWindow="0" windowWidth="27140" windowHeight="20140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="rank_challage" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="213">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,22 +224,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mr.Legend：Rob 100 villages in total</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mr.Legend：Rob 1000000 gold in total</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mr.Legend：Get a Lv20 dinosaur</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mr.Legend：Explor all the caves</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Mr.Legend：Get a Tyrant </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -252,10 +236,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>培育出一只20级的恐龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>累计抢夺1000000金子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -264,22 +244,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>哥是传说：累计掠夺100次玩家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哥是传说：累计抢夺1000000金子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哥是传说：培育出一只20级的恐龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哥是传说：探索完所有巢穴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>哥是传说：获得一只霸王龙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -292,22 +256,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>哥是传说：孵化出5只紫色恐龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哥是传说：孵化出一只橙色恐龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mr.Legend: Get a orange dinosaur</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孵化一个橙色恐龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新手入门：在世界地图上攻占一座金矿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -352,68 +300,307 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NewFish: Build a lumber mill</t>
-  </si>
-  <si>
-    <t>NewFish: Build a stone pit</t>
-  </si>
-  <si>
-    <t>NewFish: Build a farm</t>
-  </si>
-  <si>
-    <t>NewFish: Build a hunter's house</t>
-  </si>
-  <si>
-    <t>NewFish: Occupy 1 gold mine in world map</t>
-  </si>
-  <si>
-    <t>NewFish: Upgrade 1 gold mine in world map</t>
-  </si>
-  <si>
-    <t>FreshBird: Win 1 match in the arena</t>
-  </si>
-  <si>
-    <t>FreshBird: Join/build a Tribe</t>
-  </si>
-  <si>
-    <t>FreshBird: Occupy 1 Tribe mine around &lt;500,500&gt;</t>
-  </si>
-  <si>
-    <t>FreshBird: Make a donation in the Tribe</t>
-  </si>
-  <si>
-    <t>FreshBird: Steal a player's farm</t>
-  </si>
-  <si>
-    <t>FreshBird: Attack a player's village</t>
-  </si>
-  <si>
-    <t>FreshBird: Use scroll once in a battle</t>
-  </si>
-  <si>
-    <t>FreshBird: Unlock Cave 7</t>
-  </si>
-  <si>
-    <t>FormalChief: Enchant your egg in the Incubation House</t>
-  </si>
-  <si>
-    <t>FormalChief: Train a dinosaur in the stable</t>
-  </si>
-  <si>
-    <t>FormalChief: Upgrade 1 gold mine to Lv 3</t>
-  </si>
-  <si>
-    <t>FormalChief: Occupy one gold mine Lv 3 or above</t>
-  </si>
-  <si>
-    <t>FormalChief: Apply to be a advisor at the left top of screen in town</t>
-  </si>
-  <si>
-    <t>FormalChief: Sell sth in the market once</t>
+    <t>累计掠夺10次玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计掠夺50次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计掠夺1000次玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计抢夺1000金子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计抢夺10000金子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计抢夺100000金子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孵化出1只紫色恐龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孵化出3只紫色恐龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孵化出7只紫色恐龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孵化出10只紫色恐龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>培育出一只5级的恐龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>培育出一只10级的恐龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>培育出一只15级的恐龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>培育出一只30级的恐龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>培育出一只60级的恐龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>培育出一只90级的恐龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孵化出1只橙色恐龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索10个巢穴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索20个巢穴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索30个巢穴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索40个巢穴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索50个巢穴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索60个巢穴</t>
+  </si>
+  <si>
+    <t>探索70个巢穴</t>
+  </si>
+  <si>
+    <t>探索80个巢穴</t>
+  </si>
+  <si>
+    <t>探索90个巢穴</t>
+  </si>
+  <si>
+    <t>1项科技达到3级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1项科技达到5级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1项科技达到10级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1项科技达到15级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5项科技达到10级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5项科技达到15级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5项科技达到20级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10项科技达到15级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10项科技达到20级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15项科技达到15级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15项科技达到20级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸道之路：累计掠夺10次玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸道之路：累计掠夺50次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸道之路：累计掠夺100次玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸道之路：累计掠夺1000次玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸道之路：累计抢夺1000金子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸道之路：累计抢夺10000金子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸道之路：累计抢夺100000金子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸道之路：累计抢夺1000000金子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探险之路：探索10个巢穴</t>
+  </si>
+  <si>
+    <t>探险之路：探索20个巢穴</t>
+  </si>
+  <si>
+    <t>探险之路：探索30个巢穴</t>
+  </si>
+  <si>
+    <t>探险之路：探索40个巢穴</t>
+  </si>
+  <si>
+    <t>探险之路：探索50个巢穴</t>
+  </si>
+  <si>
+    <t>探险之路：探索60个巢穴</t>
+  </si>
+  <si>
+    <t>探险之路：探索70个巢穴</t>
+  </si>
+  <si>
+    <t>探险之路：探索80个巢穴</t>
+  </si>
+  <si>
+    <t>探险之路：探索90个巢穴</t>
+  </si>
+  <si>
+    <t>探险之路：探索完所有巢穴</t>
+  </si>
+  <si>
+    <t>训练之路：孵化出1只紫色恐龙</t>
+  </si>
+  <si>
+    <t>训练之路：孵化出3只紫色恐龙</t>
+  </si>
+  <si>
+    <t>训练之路：孵化出5只紫色恐龙</t>
+  </si>
+  <si>
+    <t>训练之路：孵化出7只紫色恐龙</t>
+  </si>
+  <si>
+    <t>训练之路：孵化出10只紫色恐龙</t>
+  </si>
+  <si>
+    <t>训练之路：孵化出1只橙色恐龙</t>
+  </si>
+  <si>
+    <t>训练之路：培育出一只5级的恐龙</t>
+  </si>
+  <si>
+    <t>训练之路：培育出一只10级的恐龙</t>
+  </si>
+  <si>
+    <t>训练之路：培育出一只15级的恐龙</t>
+  </si>
+  <si>
+    <t>训练之路：培育出一只30级的恐龙</t>
+  </si>
+  <si>
+    <t>训练之路：培育出一只60级的恐龙</t>
+  </si>
+  <si>
+    <t>训练之路：培育出一只90级的恐龙</t>
+  </si>
+  <si>
+    <t>发明之路：1项科技达到3级</t>
+  </si>
+  <si>
+    <t>发明之路：1项科技达到5级</t>
+  </si>
+  <si>
+    <t>发明之路：1项科技达到10级</t>
+  </si>
+  <si>
+    <t>发明之路：1项科技达到15级</t>
+  </si>
+  <si>
+    <t>发明之路：5项科技达到10级</t>
+  </si>
+  <si>
+    <t>发明之路：5项科技达到15级</t>
+  </si>
+  <si>
+    <t>发明之路：5项科技达到20级</t>
+  </si>
+  <si>
+    <t>发明之路：10项科技达到15级</t>
+  </si>
+  <si>
+    <t>发明之路：10项科技达到20级</t>
+  </si>
+  <si>
+    <t>发明之路：15项科技达到15级</t>
+  </si>
+  <si>
+    <t>发明之路：15项科技达到20级</t>
+  </si>
+  <si>
+    <t>Ringmaster's road: Get 3 purple dinosaurs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ringmaster's road: Get 1 purple dinosaurs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ringmaster's road: Get 5 purple dinosaurs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ringmaster's road: Get 7 purple dinosaurs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ringmaster's road: Get 10 purple dinosaurs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ringmaster's road: Get a orange dinosaur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>Mr.Legend</t>
+      <t>Ringmaster's road:</t>
     </r>
     <r>
       <rPr>
@@ -421,7 +608,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>:</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -429,8 +616,186 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> Get 5 purple dinosaurs</t>
+      <t>Train a dinosaur to Lv5</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ringmaster's road: Train a dinosaur to Lv15</t>
+  </si>
+  <si>
+    <t>Ringmaster's road: Train a dinosaur to Lv30</t>
+  </si>
+  <si>
+    <t>Ringmaster's road: Train a dinosaur to Lv60</t>
+  </si>
+  <si>
+    <t>Ringmaster's road: Train a dinosaur to Lv90</t>
+  </si>
+  <si>
+    <t>Ringmaster's road: Train a dinosaur to Lv10</t>
+  </si>
+  <si>
+    <t>Inventor's road: Upgrade 1 tech to Lv3</t>
+  </si>
+  <si>
+    <t>Inventor's road: Upgrade 1 tech to Lv5</t>
+  </si>
+  <si>
+    <t>Inventor's road: Upgrade 1 tech to Lv10</t>
+  </si>
+  <si>
+    <t>Inventor's road: Upgrade 1 tech to Lv15</t>
+  </si>
+  <si>
+    <t>Inventor's road: Upgrade 5 techs to Lv10</t>
+  </si>
+  <si>
+    <t>Inventor's road: Upgrade 5 techs to Lv15</t>
+  </si>
+  <si>
+    <t>Inventor's road: Upgrade 5 techs to Lv20</t>
+  </si>
+  <si>
+    <t>Inventor's road: Upgrade 10 techs to Lv15</t>
+  </si>
+  <si>
+    <t>Inventor's road: Upgrade 10 techs to Lv20</t>
+  </si>
+  <si>
+    <t>Inventor's road: Upgrade 15 techs to Lv15</t>
+  </si>
+  <si>
+    <t>Inventor's road: Upgrade 15 techs to Lv20</t>
+  </si>
+  <si>
+    <t>NewFish: Build a lumber mill</t>
+  </si>
+  <si>
+    <t>NewFish: Build a stone pit</t>
+  </si>
+  <si>
+    <t>NewFish: Build a farm</t>
+  </si>
+  <si>
+    <t>NewFish: Build a hunter's house</t>
+  </si>
+  <si>
+    <t>NewFish: Occupy 1 gold mine in world map</t>
+  </si>
+  <si>
+    <t>NewFish: Upgrade 1 gold mine in world map</t>
+  </si>
+  <si>
+    <t>FreshBird: Win 1 match in the arena</t>
+  </si>
+  <si>
+    <t>FreshBird: Join/build a Tribe</t>
+  </si>
+  <si>
+    <t>FreshBird: Occupy 1 Tribe mine around &lt;500,500&gt;</t>
+  </si>
+  <si>
+    <t>FreshBird: Make a donation in the Tribe</t>
+  </si>
+  <si>
+    <t>FreshBird: Steal a player's farm</t>
+  </si>
+  <si>
+    <t>FreshBird: Attack a player's village</t>
+  </si>
+  <si>
+    <t>FreshBird: Use scroll once in a battle</t>
+  </si>
+  <si>
+    <t>FreshBird: Unlock Cave 7</t>
+  </si>
+  <si>
+    <t>FormalChief: Enchant your egg in the Incubation House</t>
+  </si>
+  <si>
+    <t>FormalChief: Train a dinosaur in the stable</t>
+  </si>
+  <si>
+    <t>FormalChief: Upgrade 1 gold mine to Lv 3</t>
+  </si>
+  <si>
+    <t>FormalChief: Occupy one gold mine Lv 3 or above</t>
+  </si>
+  <si>
+    <t>FormalChief: Apply to be a advisor at the left top of screen in town</t>
+  </si>
+  <si>
+    <t>FormalChief: Sell sth in the market once</t>
+  </si>
+  <si>
+    <t>Explorer's road: Open 10 caves</t>
+  </si>
+  <si>
+    <t>Explorer's road: Open 20 caves</t>
+  </si>
+  <si>
+    <t>Explorer's road: Open 30 caves</t>
+  </si>
+  <si>
+    <t>Explorer's road: Open 40 caves</t>
+  </si>
+  <si>
+    <t>Explorer's road: Open 50 caves</t>
+  </si>
+  <si>
+    <t>Explorer's road: Open 60 caves</t>
+  </si>
+  <si>
+    <t>Explorer's road: Open 70 caves</t>
+  </si>
+  <si>
+    <t>Explorer's road: Open 80 caves</t>
+  </si>
+  <si>
+    <t>Explorer's road: Open 90 caves</t>
+  </si>
+  <si>
+    <t>Explorer's road: Explor all the caves</t>
+  </si>
+  <si>
+    <t>Empire's road: Rob 10 villages</t>
+  </si>
+  <si>
+    <t>Empire's road: Rob 50 villages</t>
+  </si>
+  <si>
+    <t>Empire's road: Rob 100 villages</t>
+  </si>
+  <si>
+    <t>Empire's road: Rob 1000 villages</t>
+  </si>
+  <si>
+    <t>Empire's road: Rob 1000 gold</t>
+  </si>
+  <si>
+    <t>Empire's road: Rob 10000 gold</t>
+  </si>
+  <si>
+    <t>Empire's road: Rob 100000 gold</t>
+  </si>
+  <si>
+    <t>Empire's road: Rob 1000000 gold</t>
+  </si>
+  <si>
+    <t>总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gems</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -438,7 +803,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -484,6 +852,26 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -502,11 +890,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -516,9 +908,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -536,6 +925,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -549,14 +953,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="6">
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -898,52 +1310,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="13" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="21">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1">
         <v>1000</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -951,19 +1363,19 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="1">
         <v>500</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -971,17 +1383,17 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>100000</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1424,779 +1836,1865 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:O64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="74.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="57.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="26.1640625" style="9" customWidth="1"/>
+    <col min="5" max="6" width="22.6640625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="8.83203125" style="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="17" style="1" customWidth="1"/>
+    <col min="14" max="14" width="74.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="57.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:15" ht="21">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="13" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="K1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="J1" s="15" t="s">
+      <c r="L1" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="18"/>
+      <c r="N1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="O1" s="21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="13"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="4" t="s">
+    <row r="2" spans="1:15">
+      <c r="A2" s="19"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="F2" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>20001</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1">
+      <c r="E3" s="14">
+        <v>1000</v>
+      </c>
+      <c r="K3" s="1">
         <v>200</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="K3" s="9" t="s">
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="O3" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>20002</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1">
+      <c r="E4" s="14">
+        <v>1000</v>
+      </c>
+      <c r="K4" s="1">
         <v>200</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K4" s="9" t="s">
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="O4" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>20003</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1">
+      <c r="E5" s="14">
+        <v>1000</v>
+      </c>
+      <c r="K5" s="1">
         <v>200</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="K5" s="9" t="s">
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="O5" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>20004</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="E6" s="14">
+        <v>1000</v>
+      </c>
+      <c r="G6" s="1">
         <v>2</v>
       </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
         <v>10</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1">
+      <c r="K6" s="1">
         <v>200</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="K6" s="9" t="s">
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="O6" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>20005</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1">
+      <c r="E7" s="14">
+        <v>1000</v>
+      </c>
+      <c r="K7" s="1">
         <v>200</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>20006</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1">
+      <c r="E8" s="14">
+        <v>1000</v>
+      </c>
+      <c r="K8" s="1">
         <v>200</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" s="1">
+        <v>20005</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>20007</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="14">
+        <v>1000</v>
+      </c>
+      <c r="G9" s="1">
         <v>2</v>
       </c>
-      <c r="E9" s="1">
+      <c r="H9" s="1">
         <v>4</v>
       </c>
-      <c r="F9" s="1">
+      <c r="I9" s="1">
         <v>10</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1">
+      <c r="K9" s="1">
         <v>400</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="K9" s="9" t="s">
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="O9" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>20008</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H10" s="1">
+      <c r="E10" s="14">
+        <v>1000</v>
+      </c>
+      <c r="K10" s="1">
         <v>400</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="K10" s="9" t="s">
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="O10" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>20009</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="1">
+      <c r="E11" s="14">
         <v>10000</v>
       </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
         <v>2</v>
       </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1">
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
         <v>3</v>
       </c>
-      <c r="H11" s="1">
+      <c r="K11" s="1">
         <v>400</v>
       </c>
-      <c r="I11" s="1">
+      <c r="L11" s="1">
         <v>20008</v>
       </c>
-      <c r="J11" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>20010</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="1">
+      <c r="E12" s="14">
         <v>5000</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1">
+      <c r="K12" s="1">
         <v>400</v>
       </c>
-      <c r="I12" s="1">
+      <c r="L12" s="1">
         <v>20008</v>
       </c>
-      <c r="J12" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>20011</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="14">
         <v>5000</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1">
+      <c r="K13" s="1">
         <v>400</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>20012</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="14">
+        <v>1000</v>
+      </c>
+      <c r="G14" s="1">
         <v>3</v>
       </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1"/>
       <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
         <v>400</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>20013</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1">
+      <c r="E15" s="14">
+        <v>1000</v>
+      </c>
+      <c r="K15" s="1">
         <v>400</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="K15" s="9" t="s">
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="O15" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>20014</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="1">
+      <c r="E16" s="14">
         <v>5000</v>
       </c>
-      <c r="D16" s="1">
+      <c r="G16" s="1">
         <v>2</v>
       </c>
-      <c r="E16" s="1">
+      <c r="H16" s="1">
         <v>2</v>
       </c>
-      <c r="F16" s="1">
+      <c r="I16" s="1">
         <v>10</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1">
+      <c r="K16" s="1">
         <v>400</v>
       </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="M16" s="1">
+        <v>6</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>20015</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="1">
+      <c r="E17" s="14">
         <v>5000</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1">
+      <c r="K17" s="1">
         <v>400</v>
       </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>20016</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="1">
+      <c r="E18" s="14">
         <v>5000</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1">
+      <c r="K18" s="1">
         <v>800</v>
       </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="M18" s="1">
+        <v>1</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>20017</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="1">
+      <c r="E19" s="14">
         <v>5000</v>
       </c>
-      <c r="D19" s="1">
+      <c r="G19" s="1">
         <v>2</v>
       </c>
-      <c r="E19" s="1">
+      <c r="H19" s="1">
         <v>3</v>
       </c>
-      <c r="F19" s="1">
+      <c r="I19" s="1">
         <v>10</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1">
+      <c r="K19" s="1">
         <v>800</v>
       </c>
-      <c r="I19" s="1">
+      <c r="L19" s="1">
         <v>20006</v>
       </c>
-      <c r="J19" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="M19" s="1">
+        <v>1</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>20018</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="1">
+      <c r="E20" s="14">
         <v>10000</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1">
+      <c r="K20" s="1">
         <v>800</v>
       </c>
-      <c r="I20" s="1">
-        <v>20005</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20" s="1">
+        <v>20017</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>20019</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="1">
+      <c r="E21" s="14">
         <v>10000</v>
       </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
         <v>2</v>
       </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1">
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
         <v>2</v>
       </c>
-      <c r="H21" s="1">
+      <c r="K21" s="1">
         <v>800</v>
       </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="K21" s="9" t="s">
+      <c r="M21" s="1">
+        <v>1</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="O21" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20020</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="14">
         <v>10000</v>
       </c>
-      <c r="H22" s="1">
+      <c r="K22" s="1">
         <v>800</v>
       </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="K22" s="9" t="s">
+      <c r="M22" s="1">
+        <v>1</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="O22" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>20021</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="1">
+      <c r="B23" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="14">
         <v>100000</v>
       </c>
-      <c r="H23" s="1">
-        <v>1000</v>
-      </c>
-      <c r="J23" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="K23" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M23" s="1">
+        <v>1</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>20022</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="1">
-        <v>100000</v>
+      <c r="B24" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="14">
+        <v>10000</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
       </c>
       <c r="H24" s="1">
-        <v>1000</v>
-      </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>3</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M24" s="1">
+        <v>10</v>
+      </c>
+      <c r="N24" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="O24" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>20023</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="1">
-        <v>100000</v>
-      </c>
-      <c r="H25" s="1">
-        <v>1000</v>
-      </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="B25" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="14">
+        <v>50000</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L25" s="1">
+        <v>20022</v>
+      </c>
+      <c r="M25" s="1">
+        <v>20</v>
+      </c>
+      <c r="N25" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="O25" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1">
         <v>20024</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="1">
+      <c r="B26" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="14">
         <v>100000</v>
       </c>
-      <c r="H26" s="1">
-        <v>1000</v>
-      </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="K26" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L26" s="1">
+        <v>20023</v>
+      </c>
+      <c r="M26" s="1">
+        <v>30</v>
+      </c>
+      <c r="N26" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="O26" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1">
         <v>20025</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="1">
-        <v>100000</v>
-      </c>
-      <c r="H27" s="1">
-        <v>1000</v>
-      </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="B27" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="14">
+        <v>150000</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L27" s="1">
+        <v>20024</v>
+      </c>
+      <c r="M27" s="1">
+        <v>40</v>
+      </c>
+      <c r="N27" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="O27" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="1">
         <v>20026</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="1">
-        <v>100000</v>
+        <v>91</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="14">
+        <v>200000</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
       </c>
       <c r="H28" s="1">
-        <v>1000</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>6</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1">
+        <v>3</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L28" s="1">
+        <v>20025</v>
+      </c>
+      <c r="M28" s="1">
+        <v>50</v>
+      </c>
+      <c r="N28" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="O28" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="1">
         <v>20027</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="1">
+      <c r="B29" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="14">
+        <v>250000</v>
+      </c>
+      <c r="K29" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L29" s="1">
+        <v>20026</v>
+      </c>
+      <c r="M29" s="1">
+        <v>60</v>
+      </c>
+      <c r="N29" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="O29" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="1">
+        <v>20028</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="14">
+        <v>300000</v>
+      </c>
+      <c r="K30" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L30" s="1">
+        <v>20027</v>
+      </c>
+      <c r="M30" s="1">
+        <v>70</v>
+      </c>
+      <c r="N30" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="O30" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="1">
+        <v>20029</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="14">
+        <v>350000</v>
+      </c>
+      <c r="K31" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L31" s="1">
+        <v>20028</v>
+      </c>
+      <c r="M31" s="1">
+        <v>80</v>
+      </c>
+      <c r="N31" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="O31" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="1">
+        <v>20030</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="14">
+        <v>400000</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1">
+        <v>7</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1">
+        <v>3</v>
+      </c>
+      <c r="K32" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L32" s="1">
+        <v>20029</v>
+      </c>
+      <c r="M32" s="1">
+        <v>90</v>
+      </c>
+      <c r="N32" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="O32" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="1">
+        <v>20031</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="14">
         <v>1000000</v>
       </c>
-      <c r="H29" s="1">
-        <v>1000</v>
-      </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="9" t="s">
+      <c r="K33" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L33" s="1">
+        <v>20030</v>
+      </c>
+      <c r="M33" s="1">
+        <v>1</v>
+      </c>
+      <c r="N33" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="O33" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="1">
+        <v>20032</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="14">
+        <v>10000</v>
+      </c>
+      <c r="K34" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M34" s="1">
+        <v>10</v>
+      </c>
+      <c r="N34" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="O34" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="1">
+        <v>20033</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="14">
+        <v>50000</v>
+      </c>
+      <c r="K35" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L35" s="1">
+        <v>20032</v>
+      </c>
+      <c r="M35" s="1">
+        <v>50</v>
+      </c>
+      <c r="N35" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="O35" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="1">
+        <v>20034</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="14">
+        <v>100000</v>
+      </c>
+      <c r="K36" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L36" s="1">
+        <v>20033</v>
+      </c>
+      <c r="M36" s="1">
+        <v>100</v>
+      </c>
+      <c r="N36" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="O36" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="1">
+        <v>20035</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="14">
+        <v>500000</v>
+      </c>
+      <c r="K37" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L37" s="1">
+        <v>20034</v>
+      </c>
+      <c r="M37" s="1">
+        <v>1000</v>
+      </c>
+      <c r="N37" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="O37" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="1">
+        <v>20036</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="14">
+        <v>1000</v>
+      </c>
+      <c r="K38" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M38" s="1">
+        <v>1000</v>
+      </c>
+      <c r="N38" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="O38" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="1">
+        <v>20037</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="14">
+        <v>10000</v>
+      </c>
+      <c r="K39" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L39" s="1">
+        <v>20036</v>
+      </c>
+      <c r="M39" s="1">
+        <v>10000</v>
+      </c>
+      <c r="N39" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="O39" s="16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="1">
+        <v>20038</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="14">
+        <v>100000</v>
+      </c>
+      <c r="K40" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L40" s="1">
+        <v>20037</v>
+      </c>
+      <c r="M40" s="1">
+        <v>100000</v>
+      </c>
+      <c r="N40" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="O40" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="1">
+        <v>20039</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="K29" s="9" t="s">
-        <v>64</v>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="K41" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L41" s="1">
+        <v>20038</v>
+      </c>
+      <c r="M41" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="N41" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="O41" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="1">
+        <v>20040</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="14">
+        <v>10000</v>
+      </c>
+      <c r="K42" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M42" s="1">
+        <v>1</v>
+      </c>
+      <c r="N42" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="O42" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="1">
+        <v>20041</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="14">
+        <v>30000</v>
+      </c>
+      <c r="K43" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L43" s="1">
+        <v>20040</v>
+      </c>
+      <c r="M43" s="1">
+        <v>3</v>
+      </c>
+      <c r="N43" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="O43" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="1">
+        <v>20042</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="14">
+        <v>50000</v>
+      </c>
+      <c r="K44" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L44" s="1">
+        <v>20041</v>
+      </c>
+      <c r="M44" s="1">
+        <v>5</v>
+      </c>
+      <c r="N44" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="O44" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="1">
+        <v>20043</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="14">
+        <v>70000</v>
+      </c>
+      <c r="K45" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L45" s="1">
+        <v>20042</v>
+      </c>
+      <c r="M45" s="1">
+        <v>7</v>
+      </c>
+      <c r="N45" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="O45" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="1">
+        <v>20044</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="14">
+        <v>100000</v>
+      </c>
+      <c r="K46" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L46" s="1">
+        <v>20043</v>
+      </c>
+      <c r="M46" s="1">
+        <v>10</v>
+      </c>
+      <c r="N46" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="O46" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="1">
+        <v>20045</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="14">
+        <v>500000</v>
+      </c>
+      <c r="K47" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M47" s="1">
+        <v>1</v>
+      </c>
+      <c r="N47" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="O47" s="15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="1">
+        <v>20046</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="14">
+        <v>10000</v>
+      </c>
+      <c r="K48" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M48" s="1">
+        <v>5</v>
+      </c>
+      <c r="N48" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="O48" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="1">
+        <v>20047</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="14">
+        <v>15000</v>
+      </c>
+      <c r="K49" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L49" s="1">
+        <v>20046</v>
+      </c>
+      <c r="M49" s="1">
+        <v>10</v>
+      </c>
+      <c r="N49" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="O49" s="16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="1">
+        <v>20048</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="14">
+        <v>20000</v>
+      </c>
+      <c r="K50" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L50" s="1">
+        <v>20047</v>
+      </c>
+      <c r="M50" s="1">
+        <v>15</v>
+      </c>
+      <c r="N50" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="O50" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="1">
+        <v>20049</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="14">
+        <v>50000</v>
+      </c>
+      <c r="K51" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L51" s="1">
+        <v>20048</v>
+      </c>
+      <c r="M51" s="1">
+        <v>30</v>
+      </c>
+      <c r="N51" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="O51" s="16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="1">
+        <v>20050</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="14">
+        <v>100000</v>
+      </c>
+      <c r="K52" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L52" s="1">
+        <v>20049</v>
+      </c>
+      <c r="M52" s="1">
+        <v>60</v>
+      </c>
+      <c r="N52" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="O52" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="1">
+        <v>20051</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="K53" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L53" s="1">
+        <v>20050</v>
+      </c>
+      <c r="M53" s="1">
+        <v>90</v>
+      </c>
+      <c r="N53" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="O53" s="16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="1">
+        <v>20052</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E54" s="14">
+        <v>10000</v>
+      </c>
+      <c r="G54" s="1">
+        <v>2</v>
+      </c>
+      <c r="H54" s="1">
+        <v>1</v>
+      </c>
+      <c r="I54" s="1">
+        <v>10</v>
+      </c>
+      <c r="K54" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M54" s="1">
+        <v>3</v>
+      </c>
+      <c r="N54" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="O54" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="1">
+        <v>20053</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E55" s="14">
+        <v>20000</v>
+      </c>
+      <c r="K55" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L55" s="1">
+        <v>20052</v>
+      </c>
+      <c r="M55" s="1">
+        <v>5</v>
+      </c>
+      <c r="N55" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="O55" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="1">
+        <v>20054</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E56" s="14">
+        <v>30000</v>
+      </c>
+      <c r="G56" s="1">
+        <v>2</v>
+      </c>
+      <c r="H56" s="1">
+        <v>2</v>
+      </c>
+      <c r="I56" s="1">
+        <v>50</v>
+      </c>
+      <c r="K56" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L56" s="1">
+        <v>20053</v>
+      </c>
+      <c r="M56" s="1">
+        <v>10</v>
+      </c>
+      <c r="N56" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="O56" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="1">
+        <v>20055</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E57" s="14">
+        <v>40000</v>
+      </c>
+      <c r="K57" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L57" s="1">
+        <v>20054</v>
+      </c>
+      <c r="M57" s="1">
+        <v>15</v>
+      </c>
+      <c r="N57" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="O57" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="1">
+        <v>20056</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E58" s="14">
+        <v>50000</v>
+      </c>
+      <c r="K58" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L58" s="1">
+        <v>20055</v>
+      </c>
+      <c r="M58" s="1">
+        <v>10</v>
+      </c>
+      <c r="N58" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="O58" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="1">
+        <v>20057</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E59" s="14">
+        <v>60000</v>
+      </c>
+      <c r="G59" s="1">
+        <v>2</v>
+      </c>
+      <c r="H59" s="1">
+        <v>3</v>
+      </c>
+      <c r="I59" s="1">
+        <v>100</v>
+      </c>
+      <c r="K59" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L59" s="1">
+        <v>20056</v>
+      </c>
+      <c r="M59" s="1">
+        <v>15</v>
+      </c>
+      <c r="N59" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="O59" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="1">
+        <v>20058</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E60" s="14">
+        <v>70000</v>
+      </c>
+      <c r="K60" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L60" s="1">
+        <v>20057</v>
+      </c>
+      <c r="M60" s="1">
+        <v>20</v>
+      </c>
+      <c r="N60" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="O60" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="1">
+        <v>20059</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E61" s="14">
+        <v>80000</v>
+      </c>
+      <c r="G61" s="1">
+        <v>2</v>
+      </c>
+      <c r="H61" s="1">
+        <v>4</v>
+      </c>
+      <c r="I61" s="1">
+        <v>100</v>
+      </c>
+      <c r="K61" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L61" s="1">
+        <v>20058</v>
+      </c>
+      <c r="M61" s="1">
+        <v>15</v>
+      </c>
+      <c r="N61" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="O61" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="1">
+        <v>20060</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E62" s="14">
+        <v>90000</v>
+      </c>
+      <c r="K62" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L62" s="1">
+        <v>20059</v>
+      </c>
+      <c r="M62" s="1">
+        <v>20</v>
+      </c>
+      <c r="N62" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="O62" s="15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="1">
+        <v>20061</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E63" s="14">
+        <v>100000</v>
+      </c>
+      <c r="K63" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L63" s="1">
+        <v>20060</v>
+      </c>
+      <c r="M63" s="1">
+        <v>15</v>
+      </c>
+      <c r="N63" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="O63" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="1">
+        <v>20062</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E64" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="G64" s="1">
+        <v>2</v>
+      </c>
+      <c r="H64" s="1">
+        <v>1</v>
+      </c>
+      <c r="I64" s="1">
+        <v>500</v>
+      </c>
+      <c r="K64" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L64" s="1">
+        <v>20061</v>
+      </c>
+      <c r="M64" s="1">
+        <v>20</v>
+      </c>
+      <c r="N64" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="O64" s="15" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
     <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/const/newquest.xlsx
+++ b/const/newquest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="0" windowWidth="27140" windowHeight="20140" activeTab="1"/>
+    <workbookView xWindow="80" yWindow="0" windowWidth="38320" windowHeight="20160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="rank_challage" sheetId="3" r:id="rId1"/>
@@ -1838,8 +1838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="M54" sqref="M54:M64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2803,7 +2803,7 @@
         <v>20030</v>
       </c>
       <c r="M33" s="1">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="N33" s="16" t="s">
         <v>200</v>
@@ -3376,7 +3376,7 @@
         <v>1000</v>
       </c>
       <c r="M54" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N54" s="12" t="s">
         <v>160</v>
@@ -3402,7 +3402,7 @@
         <v>20052</v>
       </c>
       <c r="M55" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N55" s="16" t="s">
         <v>161</v>
@@ -3437,7 +3437,7 @@
         <v>20053</v>
       </c>
       <c r="M56" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N56" s="16" t="s">
         <v>162</v>
@@ -3463,7 +3463,7 @@
         <v>20054</v>
       </c>
       <c r="M57" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N57" s="16" t="s">
         <v>163</v>
@@ -3489,7 +3489,7 @@
         <v>20055</v>
       </c>
       <c r="M58" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N58" s="16" t="s">
         <v>164</v>
@@ -3524,7 +3524,7 @@
         <v>20056</v>
       </c>
       <c r="M59" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N59" s="16" t="s">
         <v>165</v>
@@ -3550,7 +3550,7 @@
         <v>20057</v>
       </c>
       <c r="M60" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N60" s="16" t="s">
         <v>166</v>
@@ -3585,7 +3585,7 @@
         <v>20058</v>
       </c>
       <c r="M61" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N61" s="16" t="s">
         <v>167</v>
@@ -3611,7 +3611,7 @@
         <v>20059</v>
       </c>
       <c r="M62" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N62" s="16" t="s">
         <v>168</v>
@@ -3637,7 +3637,7 @@
         <v>20060</v>
       </c>
       <c r="M63" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N63" s="16" t="s">
         <v>169</v>
@@ -3672,7 +3672,7 @@
         <v>20061</v>
       </c>
       <c r="M64" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N64" s="12" t="s">
         <v>170</v>

--- a/const/newquest.xlsx
+++ b/const/newquest.xlsx
@@ -890,9 +890,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -954,12 +956,14 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="8">
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1838,8 +1842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="M54" sqref="M54:M64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1932,6 +1936,15 @@
       <c r="E3" s="14">
         <v>1000</v>
       </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>10</v>
+      </c>
       <c r="K3" s="1">
         <v>200</v>
       </c>
@@ -1955,6 +1968,15 @@
       <c r="E4" s="14">
         <v>1000</v>
       </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>10</v>
+      </c>
       <c r="K4" s="1">
         <v>200</v>
       </c>
@@ -1977,6 +1999,15 @@
       </c>
       <c r="E5" s="14">
         <v>1000</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1">
+        <v>10</v>
       </c>
       <c r="K5" s="1">
         <v>200</v>
@@ -2822,6 +2853,15 @@
       <c r="E34" s="14">
         <v>10000</v>
       </c>
+      <c r="G34" s="1">
+        <v>2</v>
+      </c>
+      <c r="H34" s="1">
+        <v>3</v>
+      </c>
+      <c r="I34" s="1">
+        <v>10</v>
+      </c>
       <c r="K34" s="1">
         <v>1000</v>
       </c>
@@ -2844,6 +2884,15 @@
       </c>
       <c r="E35" s="14">
         <v>50000</v>
+      </c>
+      <c r="G35" s="1">
+        <v>2</v>
+      </c>
+      <c r="H35" s="1">
+        <v>4</v>
+      </c>
+      <c r="I35" s="1">
+        <v>20</v>
       </c>
       <c r="K35" s="1">
         <v>1000</v>
@@ -2873,6 +2922,15 @@
       <c r="E36" s="14">
         <v>100000</v>
       </c>
+      <c r="G36" s="1">
+        <v>2</v>
+      </c>
+      <c r="H36" s="1">
+        <v>5</v>
+      </c>
+      <c r="I36" s="1">
+        <v>30</v>
+      </c>
       <c r="K36" s="1">
         <v>1000</v>
       </c>
@@ -2901,6 +2959,15 @@
       <c r="E37" s="14">
         <v>500000</v>
       </c>
+      <c r="G37" s="1">
+        <v>2</v>
+      </c>
+      <c r="H37" s="1">
+        <v>6</v>
+      </c>
+      <c r="I37" s="1">
+        <v>40</v>
+      </c>
       <c r="K37" s="1">
         <v>1000</v>
       </c>
@@ -2928,6 +2995,15 @@
       <c r="D38" s="12"/>
       <c r="E38" s="14">
         <v>1000</v>
+      </c>
+      <c r="G38" s="1">
+        <v>2</v>
+      </c>
+      <c r="H38" s="1">
+        <v>6</v>
+      </c>
+      <c r="I38" s="1">
+        <v>10</v>
       </c>
       <c r="K38" s="1">
         <v>1000</v>
@@ -2954,6 +3030,15 @@
       <c r="E39" s="14">
         <v>10000</v>
       </c>
+      <c r="G39" s="1">
+        <v>2</v>
+      </c>
+      <c r="H39" s="1">
+        <v>5</v>
+      </c>
+      <c r="I39" s="1">
+        <v>20</v>
+      </c>
       <c r="K39" s="1">
         <v>1000</v>
       </c>
@@ -2982,6 +3067,15 @@
       <c r="E40" s="14">
         <v>100000</v>
       </c>
+      <c r="G40" s="1">
+        <v>2</v>
+      </c>
+      <c r="H40" s="1">
+        <v>4</v>
+      </c>
+      <c r="I40" s="1">
+        <v>30</v>
+      </c>
       <c r="K40" s="1">
         <v>1000</v>
       </c>
@@ -3010,6 +3104,15 @@
       <c r="E41" s="14">
         <v>1000000</v>
       </c>
+      <c r="G41" s="1">
+        <v>2</v>
+      </c>
+      <c r="H41" s="1">
+        <v>3</v>
+      </c>
+      <c r="I41" s="1">
+        <v>40</v>
+      </c>
       <c r="K41" s="1">
         <v>1000</v>
       </c>
@@ -3038,6 +3141,15 @@
       <c r="E42" s="14">
         <v>10000</v>
       </c>
+      <c r="G42" s="1">
+        <v>2</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1</v>
+      </c>
+      <c r="I42" s="1">
+        <v>10</v>
+      </c>
       <c r="K42" s="1">
         <v>1000</v>
       </c>
@@ -3063,6 +3175,15 @@
       <c r="E43" s="14">
         <v>30000</v>
       </c>
+      <c r="G43" s="1">
+        <v>2</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1</v>
+      </c>
+      <c r="I43" s="1">
+        <v>20</v>
+      </c>
       <c r="K43" s="1">
         <v>1000</v>
       </c>
@@ -3091,6 +3212,15 @@
       <c r="E44" s="14">
         <v>50000</v>
       </c>
+      <c r="G44" s="1">
+        <v>2</v>
+      </c>
+      <c r="H44" s="1">
+        <v>2</v>
+      </c>
+      <c r="I44" s="1">
+        <v>30</v>
+      </c>
       <c r="K44" s="1">
         <v>1000</v>
       </c>
@@ -3119,6 +3249,15 @@
       <c r="E45" s="14">
         <v>70000</v>
       </c>
+      <c r="G45" s="1">
+        <v>2</v>
+      </c>
+      <c r="H45" s="1">
+        <v>2</v>
+      </c>
+      <c r="I45" s="1">
+        <v>40</v>
+      </c>
       <c r="K45" s="1">
         <v>1000</v>
       </c>
@@ -3147,6 +3286,15 @@
       <c r="E46" s="14">
         <v>100000</v>
       </c>
+      <c r="G46" s="1">
+        <v>2</v>
+      </c>
+      <c r="H46" s="1">
+        <v>3</v>
+      </c>
+      <c r="I46" s="1">
+        <v>50</v>
+      </c>
       <c r="K46" s="1">
         <v>1000</v>
       </c>
@@ -3175,6 +3323,15 @@
       <c r="E47" s="14">
         <v>500000</v>
       </c>
+      <c r="G47" s="1">
+        <v>2</v>
+      </c>
+      <c r="H47" s="1">
+        <v>3</v>
+      </c>
+      <c r="I47" s="1">
+        <v>60</v>
+      </c>
       <c r="K47" s="1">
         <v>1000</v>
       </c>
@@ -3200,6 +3357,15 @@
       <c r="E48" s="14">
         <v>10000</v>
       </c>
+      <c r="G48" s="1">
+        <v>2</v>
+      </c>
+      <c r="H48" s="1">
+        <v>8</v>
+      </c>
+      <c r="I48" s="1">
+        <v>50</v>
+      </c>
       <c r="K48" s="1">
         <v>1000</v>
       </c>
@@ -3225,6 +3391,15 @@
       <c r="E49" s="14">
         <v>15000</v>
       </c>
+      <c r="G49" s="1">
+        <v>2</v>
+      </c>
+      <c r="H49" s="1">
+        <v>7</v>
+      </c>
+      <c r="I49" s="1">
+        <v>60</v>
+      </c>
       <c r="K49" s="1">
         <v>1000</v>
       </c>
@@ -3253,6 +3428,15 @@
       <c r="E50" s="14">
         <v>20000</v>
       </c>
+      <c r="G50" s="1">
+        <v>2</v>
+      </c>
+      <c r="H50" s="1">
+        <v>6</v>
+      </c>
+      <c r="I50" s="1">
+        <v>70</v>
+      </c>
       <c r="K50" s="1">
         <v>1000</v>
       </c>
@@ -3281,6 +3465,15 @@
       <c r="E51" s="14">
         <v>50000</v>
       </c>
+      <c r="G51" s="1">
+        <v>2</v>
+      </c>
+      <c r="H51" s="1">
+        <v>5</v>
+      </c>
+      <c r="I51" s="1">
+        <v>80</v>
+      </c>
       <c r="K51" s="1">
         <v>1000</v>
       </c>
@@ -3309,6 +3502,15 @@
       <c r="E52" s="14">
         <v>100000</v>
       </c>
+      <c r="G52" s="1">
+        <v>2</v>
+      </c>
+      <c r="H52" s="1">
+        <v>4</v>
+      </c>
+      <c r="I52" s="1">
+        <v>90</v>
+      </c>
       <c r="K52" s="1">
         <v>1000</v>
       </c>
@@ -3336,6 +3538,15 @@
       <c r="D53" s="12"/>
       <c r="E53" s="14">
         <v>1000000</v>
+      </c>
+      <c r="G53" s="1">
+        <v>2</v>
+      </c>
+      <c r="H53" s="1">
+        <v>3</v>
+      </c>
+      <c r="I53" s="1">
+        <v>100</v>
       </c>
       <c r="K53" s="1">
         <v>1000</v>
